--- a/Bases_de_Dados/FootyStats/Chile Primera División_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Chile Primera División_2025.xlsx
@@ -40613,16 +40613,16 @@
         <v>2</v>
       </c>
       <c r="AW184" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX184" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY184" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ184" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA184" t="n">
         <v>2</v>
@@ -41691,10 +41691,10 @@
         <v>1.64</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AT189" t="n">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="AU189" t="n">
         <v>1</v>
@@ -42578,13 +42578,13 @@
         <v>10</v>
       </c>
       <c r="AX193" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY193" t="n">
         <v>14</v>
       </c>
       <c r="AZ193" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA193" t="n">
         <v>5</v>
@@ -42796,13 +42796,13 @@
         <v>9</v>
       </c>
       <c r="AX194" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY194" t="n">
         <v>13</v>
       </c>
       <c r="AZ194" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA194" t="n">
         <v>2</v>
@@ -43214,13 +43214,13 @@
         <v>1.2</v>
       </c>
       <c r="AR196" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AS196" t="n">
         <v>1.63</v>
       </c>
       <c r="AT196" t="n">
-        <v>3.16</v>
+        <v>3.15</v>
       </c>
       <c r="AU196" t="n">
         <v>3</v>
@@ -43444,19 +43444,19 @@
         <v>9</v>
       </c>
       <c r="AV197" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW197" t="n">
         <v>9</v>
       </c>
       <c r="AX197" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AY197" t="n">
         <v>18</v>
       </c>
       <c r="AZ197" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA197" t="n">
         <v>4</v>
@@ -43665,16 +43665,16 @@
         <v>2</v>
       </c>
       <c r="AW198" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX198" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY198" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ198" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA198" t="n">
         <v>4</v>
@@ -44319,13 +44319,13 @@
         <v>7</v>
       </c>
       <c r="AW201" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX201" t="n">
         <v>8</v>
       </c>
       <c r="AY201" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ201" t="n">
         <v>15</v>
@@ -44537,13 +44537,13 @@
         <v>4</v>
       </c>
       <c r="AW202" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX202" t="n">
         <v>3</v>
       </c>
       <c r="AY202" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ202" t="n">
         <v>7</v>
@@ -44976,13 +44976,13 @@
         <v>7</v>
       </c>
       <c r="AX204" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY204" t="n">
         <v>11</v>
       </c>
       <c r="AZ204" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA204" t="n">
         <v>1</v>
@@ -45191,13 +45191,13 @@
         <v>3</v>
       </c>
       <c r="AW205" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX205" t="n">
         <v>7</v>
       </c>
       <c r="AY205" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ205" t="n">
         <v>10</v>
@@ -45926,7 +45926,7 @@
         <v>45966.72916666666</v>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -46051,10 +46051,10 @@
         <v>2</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AT209" t="n">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
       <c r="AU209" t="n">
         <v>3</v>
@@ -46278,13 +46278,13 @@
         <v>4</v>
       </c>
       <c r="AV210" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW210" t="n">
         <v>5</v>
       </c>
       <c r="AX210" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY210" t="n">
         <v>9</v>
@@ -46835,7 +46835,7 @@
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>['68', '86']</t>
+          <t>['68', '85']</t>
         </is>
       </c>
       <c r="Q213" t="n">
@@ -46923,10 +46923,10 @@
         <v>1.69</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AT213" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="AU213" t="n">
         <v>2</v>
@@ -47138,13 +47138,13 @@
         <v>1</v>
       </c>
       <c r="AR214" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="AS214" t="n">
         <v>1.31</v>
       </c>
       <c r="AT214" t="n">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="AU214" t="n">
         <v>5</v>
@@ -47365,7 +47365,7 @@
         <v>2.52</v>
       </c>
       <c r="AU215" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV215" t="n">
         <v>6</v>
@@ -47374,13 +47374,13 @@
         <v>13</v>
       </c>
       <c r="AX215" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY215" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ215" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA215" t="n">
         <v>9</v>
@@ -47795,10 +47795,10 @@
         <v>1.82</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AT217" t="n">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="AU217" t="n">
         <v>11</v>
@@ -48013,10 +48013,10 @@
         <v>1.55</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AT218" t="n">
-        <v>2.77</v>
+        <v>2.78</v>
       </c>
       <c r="AU218" t="n">
         <v>5</v>
@@ -48228,13 +48228,13 @@
         <v>1.13</v>
       </c>
       <c r="AR219" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="AS219" t="n">
         <v>1.31</v>
       </c>
       <c r="AT219" t="n">
-        <v>2.84</v>
+        <v>2.85</v>
       </c>
       <c r="AU219" t="n">
         <v>7</v>
@@ -48891,7 +48891,7 @@
         <v>2.94</v>
       </c>
       <c r="AU222" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV222" t="n">
         <v>4</v>
@@ -48903,7 +48903,7 @@
         <v>14</v>
       </c>
       <c r="AY222" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ222" t="n">
         <v>18</v>
@@ -49115,13 +49115,13 @@
         <v>2</v>
       </c>
       <c r="AW223" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX223" t="n">
         <v>7</v>
       </c>
       <c r="AY223" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ223" t="n">
         <v>9</v>
@@ -49548,13 +49548,13 @@
         <v>2</v>
       </c>
       <c r="AV225" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW225" t="n">
         <v>23</v>
       </c>
       <c r="AX225" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY225" t="n">
         <v>25</v>
@@ -49766,7 +49766,7 @@
         <v>6</v>
       </c>
       <c r="AV226" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW226" t="n">
         <v>7</v>
@@ -49778,7 +49778,7 @@
         <v>13</v>
       </c>
       <c r="AZ226" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA226" t="n">
         <v>4</v>
@@ -49972,13 +49972,13 @@
         <v>1.47</v>
       </c>
       <c r="AR227" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="AS227" t="n">
         <v>1.26</v>
       </c>
       <c r="AT227" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="AU227" t="n">
         <v>3</v>
@@ -49987,13 +49987,13 @@
         <v>4</v>
       </c>
       <c r="AW227" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX227" t="n">
         <v>4</v>
       </c>
       <c r="AY227" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ227" t="n">
         <v>8</v>
@@ -51501,10 +51501,10 @@
         <v>1.62</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AT234" t="n">
-        <v>2.84</v>
+        <v>2.85</v>
       </c>
       <c r="AU234" t="n">
         <v>2</v>
@@ -51937,10 +51937,10 @@
         <v>1.4</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AT236" t="n">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="AU236" t="n">
         <v>5</v>
@@ -52152,13 +52152,13 @@
         <v>0.67</v>
       </c>
       <c r="AR237" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AT237" t="n">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="AU237" t="n">
         <v>4</v>
@@ -52370,13 +52370,13 @@
         <v>0.53</v>
       </c>
       <c r="AR238" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="AS238" t="n">
         <v>0.99</v>
       </c>
       <c r="AT238" t="n">
-        <v>2.49</v>
+        <v>2.5</v>
       </c>
       <c r="AU238" t="n">
         <v>6</v>
@@ -52588,16 +52588,16 @@
         <v>1.2</v>
       </c>
       <c r="AR239" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="AT239" t="n">
-        <v>3.11</v>
+        <v>3.13</v>
       </c>
       <c r="AU239" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV239" t="n">
         <v>4</v>
@@ -52606,13 +52606,13 @@
         <v>9</v>
       </c>
       <c r="AX239" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY239" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ239" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA239" t="n">
         <v>2</v>
@@ -53027,10 +53027,10 @@
         <v>2.13</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AT241" t="n">
-        <v>3.35</v>
+        <v>3.36</v>
       </c>
       <c r="AU241" t="n">
         <v>11</v>
